--- a/uploads/test1.xlsx
+++ b/uploads/test1.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t xml:space="preserve">Delivery of an updated Feasibility Study including the Project Economic Model (articles 4.1 and 4.3. (a) (ii)) </t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>August 29, 2013</t>
+  </si>
+  <si>
+    <t>Emmanuel</t>
+  </si>
+  <si>
+    <t>June 25, 2013</t>
   </si>
 </sst>
 </file>
@@ -156,7 +162,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -249,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -258,17 +264,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -278,11 +278,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -588,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C10"/>
+    <sheetView tabSelected="1" topLeftCell="F9" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,184 +625,203 @@
   <sheetData>
     <row r="3" spans="1:13" ht="77.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3" t="s">
+      <c r="J4" s="13"/>
+      <c r="K4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="4" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
     </row>
     <row r="6" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="14">
         <v>41345</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="7" t="s">
+      <c r="J6" s="6"/>
+      <c r="K6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="5"/>
+      <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="5" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="5"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="5" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
+      <c r="D9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="12"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
+      <c r="D10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="E9:E10"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="K4:K5"/>
@@ -805,10 +838,6 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/uploads/test1.xlsx
+++ b/uploads/test1.xlsx
@@ -41,7 +41,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Test de commentaire</t>
+Test de commentairedsv sdfg sdfgsdfgsdfgs dfgs dfgs dfsg dfsg dfgsdfgs dfgs sth ghd gh dfgh ertyhe tyertbyety ertye dgjd fgjd ghdgh dghd ghdgf hdfghd gfhd fghd fghdfg hdgfh dfghd fghd ghdfg hdfghd fhd hfgh dfghdf hdgfh</t>
         </r>
       </text>
     </comment>
@@ -284,7 +284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -293,7 +293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -602,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F9" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,65 +625,65 @@
   <sheetData>
     <row r="3" spans="1:13" ht="77.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13" t="s">
+      <c r="J4" s="10"/>
+      <c r="K4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
       <c r="I5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
     </row>
     <row r="6" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -692,7 +692,7 @@
       <c r="C6" s="14">
         <v>41345</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="13" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -705,25 +705,25 @@
       <c r="H6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="13" t="s">
         <v>24</v>
       </c>
       <c r="J6" s="6"/>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="13" t="s">
         <v>26</v>
       </c>
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="14"/>
-      <c r="D7" s="10"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
@@ -734,19 +734,19 @@
       <c r="H7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="10"/>
+      <c r="I7" s="13"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="14"/>
-      <c r="D8" s="10"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="4" t="s">
         <v>17</v>
       </c>
@@ -757,14 +757,14 @@
       <c r="H8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="10"/>
+      <c r="I8" s="13"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="10"/>
+      <c r="K8" s="13"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -793,7 +793,7 @@
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="7" t="s">
         <v>30</v>
       </c>
@@ -817,11 +817,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="E9:E10"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="K4:K5"/>
@@ -838,6 +833,11 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="E9:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/uploads/test1.xlsx
+++ b/uploads/test1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="12240" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,8 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Test de commentairedsv sdfg sdfgsdfgsdfgs dfgs dfgs dfsg dfsg dfgsdfgs dfgs sth ghd gh dfgh ertyhe tyertbyety ertye dgjd fgjd ghdgh dghd ghdgf hdfghd gfhd fghd fghdfg hdgfh dfghd fghd ghdfg hdfghd fhd hfgh dfghdf hdgfh</t>
+Delivery of an updated Feasibility Study including the Project Economic Model (articles 4.1 and 4.3. (a) (ii)) 
+</t>
         </r>
       </text>
     </comment>
@@ -284,7 +285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -293,7 +294,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -602,7 +603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:A8"/>
     </sheetView>
   </sheetViews>
@@ -625,65 +626,65 @@
   <sheetData>
     <row r="3" spans="1:13" ht="77.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10" t="s">
+      <c r="J4" s="13"/>
+      <c r="K4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
       <c r="I5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
     </row>
     <row r="6" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -692,7 +693,7 @@
       <c r="C6" s="14">
         <v>41345</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -705,25 +706,25 @@
       <c r="H6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="10" t="s">
         <v>24</v>
       </c>
       <c r="J6" s="6"/>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="10" t="s">
         <v>26</v>
       </c>
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="14"/>
-      <c r="D7" s="13"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
@@ -734,19 +735,19 @@
       <c r="H7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="13"/>
+      <c r="I7" s="10"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="14"/>
-      <c r="D8" s="13"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="4" t="s">
         <v>17</v>
       </c>
@@ -757,14 +758,14 @@
       <c r="H8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="13"/>
+      <c r="I8" s="10"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="13"/>
+      <c r="K8" s="10"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -793,7 +794,7 @@
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="7" t="s">
         <v>30</v>
       </c>
@@ -817,6 +818,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="E9:E10"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="K4:K5"/>
@@ -833,11 +839,6 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="E9:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
